--- a/Metricas.xlsx
+++ b/Metricas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Moderado</t>
   </si>
@@ -62,9 +62,6 @@
     <t>distribuido?</t>
   </si>
   <si>
-    <t>4.¿Es critico  el de rendimineto?</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.¿Se ejecutara el sistema en </t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>y fuertemente utilizado?</t>
   </si>
   <si>
-    <t>6.¿Requiere el sistema entranta</t>
-  </si>
-  <si>
     <t>de datos interactiva?</t>
   </si>
   <si>
@@ -104,18 +98,9 @@
     <t>salidas,los archivos o las peticiones?</t>
   </si>
   <si>
-    <t>10.¿En complejo el procesamiento</t>
-  </si>
-  <si>
     <t>interno?</t>
   </si>
   <si>
-    <t>11.¿Se diseñará el código para ser</t>
-  </si>
-  <si>
-    <t>conversión y la instalación?</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.¿Se diseñara el sistema para </t>
   </si>
   <si>
@@ -132,13 +117,70 @@
   </si>
   <si>
     <t>facilmente utilizada por el usuario?</t>
+  </si>
+  <si>
+    <t>6.¿Requiere el sistema entrada</t>
+  </si>
+  <si>
+    <t>10.¿Es complejo el procesamiento</t>
+  </si>
+  <si>
+    <t>ser reutilizable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.¿Se ha diseñado el código para </t>
+  </si>
+  <si>
+    <t>4.¿Es critico el  rendimiento?</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>PF = T * (0.65 + 0.01 * F).</t>
+  </si>
+  <si>
+    <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>Factor de ponderación</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Complejo</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Número de entradas de usuario</t>
+  </si>
+  <si>
+    <t>Número de salidas de usuario</t>
+  </si>
+  <si>
+    <t>Número de peticiones de usuario</t>
+  </si>
+  <si>
+    <t>Número de archivos</t>
+  </si>
+  <si>
+    <t>Número de interfaces externas</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +188,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -182,9 +244,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,16 +542,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -520,26 +598,28 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -551,26 +631,28 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -582,26 +664,28 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -613,18 +697,20 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -633,37 +719,39 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -675,26 +763,28 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -706,48 +796,50 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -759,26 +851,28 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -790,26 +884,28 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -821,26 +917,28 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -852,26 +950,28 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -883,37 +983,39 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -925,37 +1027,39 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
@@ -972,8 +1076,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="1">
+        <f>SUM(B3,G6,E9,E12,G15,G18,F22,F26,E30,E32,G35,G38,F42)</f>
+        <v>49</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
@@ -993,7 +1102,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1002,7 +1111,110 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A60:E60"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>